--- a/Leetcode Questions.xlsx
+++ b/Leetcode Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Practice\LeetCode Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881037F6-EFBD-4AD4-8B88-86E197EC02E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9219885-8CD3-4C0E-AEC0-3B65E910D984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{ABAB6FA8-23BA-4137-96B8-859E44472391}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>S.No</t>
   </si>
@@ -123,6 +123,42 @@
   </si>
   <si>
     <t>Substract the sum of the nums from the range of nums and remaining will be the missing number</t>
+  </si>
+  <si>
+    <t>Move Zeroes</t>
+  </si>
+  <si>
+    <t>Track the place of last zero and update the zeros position based on the swap</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aayNRwUN3Do</t>
+  </si>
+  <si>
+    <t>Range Sum Query - Immutable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use memoization to store the sum of ranges and avod repetetion of addition </t>
+  </si>
+  <si>
+    <t>https://programs.programmingoneonone.com/2021/09/leetcode-range-sum-query-immutable-problem-solution.html</t>
+  </si>
+  <si>
+    <t>Third Maximum Number</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7hbaFYuJY5Y</t>
+  </si>
+  <si>
+    <t>Use three variables to store the largest of the numbers and swap the valuesb based on the greatness</t>
+  </si>
+  <si>
+    <t>Find All Numbers Disappeared in an Array</t>
+  </si>
+  <si>
+    <t>Iterate over the list, as List contains the numbers ranging from 1 to n, Assign the negative value of number to the respective index and at the end check with index has positive value those numbers are the missing values</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8i-f24YFWC4</t>
   </si>
 </sst>
 </file>
@@ -167,11 +203,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -531,18 +587,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E28E2AB-0284-4EA1-A016-09E858A3FCF3}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" style="6" customWidth="1"/>
     <col min="5" max="5" width="89.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -555,13 +611,13 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -575,13 +631,13 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -595,13 +651,13 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -615,13 +671,13 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -635,13 +691,13 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -655,13 +711,13 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -675,13 +731,13 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -695,7 +751,7 @@
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E8" t="s">
@@ -712,14 +768,94 @@
       <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>283</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>303</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>414</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>448</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -734,7 +870,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:F5 C1:C1048576 E6:E9">
+  <conditionalFormatting sqref="E5:F5 E6:E10 F11 C1:C1048576 E12:E13 F13">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
@@ -761,9 +897,15 @@
     <hyperlink ref="D6" r:id="rId8" xr:uid="{34270398-9EF2-4A82-A8C7-CAF5D6F62D9B}"/>
     <hyperlink ref="D7" r:id="rId9" xr:uid="{F0C6406C-5134-4CE4-89B1-5016703CC66C}"/>
     <hyperlink ref="D8" r:id="rId10" xr:uid="{C9201422-FF9D-44F8-97C0-664907299275}"/>
-    <hyperlink ref="D9" r:id="rId11" xr:uid="{74503AC3-D892-4D1C-9137-4425759BBFC1}"/>
+    <hyperlink ref="D10" r:id="rId11" xr:uid="{325380B1-19A1-40DE-A638-004A03B929E4}"/>
+    <hyperlink ref="D9" r:id="rId12" xr:uid="{74503AC3-D892-4D1C-9137-4425759BBFC1}"/>
+    <hyperlink ref="D11" r:id="rId13" xr:uid="{342451B7-075F-4316-A4FC-E74B55B1DF0A}"/>
+    <hyperlink ref="F11" r:id="rId14" xr:uid="{1A30AA56-F79C-491B-9234-54DD019435B6}"/>
+    <hyperlink ref="D12" r:id="rId15" xr:uid="{6E7F3E98-BCA8-4845-ACF0-250A5EE8B03A}"/>
+    <hyperlink ref="D13" r:id="rId16" xr:uid="{5C0B7F6E-29D1-4807-972C-382FAA39E672}"/>
+    <hyperlink ref="F13" r:id="rId17" xr:uid="{74FF4413-6549-450C-AF6D-757401DAEB50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/Leetcode Questions.xlsx
+++ b/Leetcode Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Practice\LeetCode Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9219885-8CD3-4C0E-AEC0-3B65E910D984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20D2C2A-72AC-4E13-B989-602BF9A4D3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{ABAB6FA8-23BA-4137-96B8-859E44472391}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>S.No</t>
   </si>
@@ -159,6 +159,46 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=8i-f24YFWC4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EX2jEKJnzw4</t>
+  </si>
+  <si>
+    <t>Assign Cookies</t>
+  </si>
+  <si>
+    <t>Iterate through the both the arrays when the cookie size is more than the greed factor increase the pointer for both the variables if , not the move to the next cookie, Sort both the arrays</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=G3b2jI7gAJ0</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iterate over the list and keep track of the zero, whenever zero is encountered increment the pointer by 1 </t>
+  </si>
+  <si>
+    <t>Teemo Attacking</t>
+  </si>
+  <si>
+    <t>Next Greater Element I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=68a1Dc_qVq4</t>
+  </si>
+  <si>
+    <t>1. Create a hashmap containg the index of values in nums1
+2. Iterate over the nums2 array, If the current elemet is present in the hashmap then find the next greast element from the rest of the array, If cur element is more than the last element of stack then we will pop the element from the stack, we will add the element to the same index in res list</t>
+  </si>
+  <si>
+    <t>Longest Harmonious Subsequence</t>
+  </si>
+  <si>
+    <t>Use Hashmap to store count of each elements and check if the current element and current element+1 present in the hashmap, if present then retuen the max of count and sum of max and current</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U1dAf0pnNBc</t>
   </si>
 </sst>
 </file>
@@ -587,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E28E2AB-0284-4EA1-A016-09E858A3FCF3}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,6 +898,100 @@
         <v>40</v>
       </c>
     </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>455</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>485</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>495</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>496</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>594</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
@@ -870,7 +1004,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:F5 E6:E10 F11 C1:C1048576 E12:E13 F13">
+  <conditionalFormatting sqref="E5:F5 E6:E10 F11 F13 E12:E15 C1:C1048576 E18">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
@@ -904,8 +1038,13 @@
     <hyperlink ref="D12" r:id="rId15" xr:uid="{6E7F3E98-BCA8-4845-ACF0-250A5EE8B03A}"/>
     <hyperlink ref="D13" r:id="rId16" xr:uid="{5C0B7F6E-29D1-4807-972C-382FAA39E672}"/>
     <hyperlink ref="F13" r:id="rId17" xr:uid="{74FF4413-6549-450C-AF6D-757401DAEB50}"/>
+    <hyperlink ref="D14" r:id="rId18" xr:uid="{C5957BF8-E3A8-49C3-81F2-DD61E72202C5}"/>
+    <hyperlink ref="D15" r:id="rId19" xr:uid="{129DEB1C-20A9-403C-9191-B6193B394834}"/>
+    <hyperlink ref="D16" r:id="rId20" xr:uid="{9675DEE8-6CF3-4EE2-87A1-E24C1FC7A3A3}"/>
+    <hyperlink ref="D17" r:id="rId21" xr:uid="{D3DD656F-5DC5-4CFB-B33B-C28A1004ADDF}"/>
+    <hyperlink ref="D18" r:id="rId22" xr:uid="{AC05CC87-E56E-4AFB-B0BA-798BDBAF2362}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>